--- a/CognitoExcel.xlsx
+++ b/CognitoExcel.xlsx
@@ -24,6 +24,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Scenario,Application,Login Method,Supported,Additional Notes</t>
+  </si>
+  <si>
+    <t>1,Mobile App,Email and Password,Yes,</t>
+  </si>
+  <si>
+    <t>1,Mobile App,Phone and OTP,No,</t>
+  </si>
+  <si>
+    <t>1,Kiosk App,Phone and OTP,No,</t>
+  </si>
+  <si>
+    <t>1,Overview,,,,Use AWS Lambda authorizer, differentiate API gateway for security, recommendation to drop MongoDB</t>
+  </si>
+  <si>
+    <t>2,Mobile App,Email and Password,Yes,</t>
+  </si>
+  <si>
+    <t>2,Mobile App,Phone and OTP,Yes,Future implementation required, old users can't log in, migrating changes user IDs</t>
+  </si>
+  <si>
+    <t>2,Kiosk App,Phone and OTP,Yes,Mobile app users need phone verification, new users created if phone not verified</t>
+  </si>
+  <si>
+    <t>2,Overview,,,,Use AWS Lambda authorizer, update client ID and secret, recommendation to drop MongoDB</t>
+  </si>
+  <si>
+    <t>3,Mobile App,Email and Password,Yes,</t>
+  </si>
+  <si>
+    <t>3,Mobile App,Phone and OTP,No,Requires Plus or Essentials plan</t>
+  </si>
+  <si>
+    <t>3,Kiosk App,Phone and OTP,Yes,Different user pools, no user-to-transaction mapping</t>
+  </si>
+  <si>
+    <t>3,Overview,,,,Use AWS Lambda authorizer, differentiate API gateway for security, recommendation to drop MongoDB</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1174,14 +1218,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
